--- a/testing/results_new_dataset/GPT-4/RARR_GPT_4.xlsx
+++ b/testing/results_new_dataset/GPT-4/RARR_GPT_4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="385">
   <si>
     <t>Statement</t>
   </si>
@@ -1157,6 +1157,18 @@
   </si>
   <si>
     <t>[('Did Margaret Thatcher tell George H.W. Bush not to go wobbly?', [('As Bush mulled over what to do in response to Saddam Hussein’s invasion of Kuwait in August 1990 – to repel the Iraqi leader militarily or not – Thatcher would tell Bush in an aside at an Aspen Institute conference, “Remember George, this is no time to go wobbly.”\nAlready a subscriber?Thatcher would be out of office before Bush, but she would not go before supplying one last juicy quote.But by the time George H.W.', 'https://www.csmonitor.com/USA/Foreign-Policy/2013/0408/Margaret-Thatcher-This-is-no-time-to-go-wobbly-and-other-memorable-quotes'), ('This was no time to go wobbly.Copyright © Margaret Thatcher Foundation 2024.Commentary\n\nIn the evening of 26th August President Bush telephoned me from Kennebunkport.', 'https://www.margaretthatcher.org/document/110711'), ("'No time to go wobbly': Bush wrote that he admired Thatcher's turn of phrase when warning him to be stern with Saddam Hussein\nWhen he phoned her in the middle of the night to tell her he would wait for Soviet approval, Thatcher replied: 'Well, all right, George, but this is no time to go wobbly.'The former prime minister gave Bush a dressing-down over plans to remove U.S. troops from Europe, and also warned him not to 'go wobbly' during the build-up to the Gulf War.Bush recounts how Margaret Thatcher gave him a stern talking-to over Cold War diplomacy after he came to power in 1988.", 'https://www.dailymail.co.uk/news/article-3313511/Margaret-Thatcher-handbagged-George-H-W-Bush-Cold-War-diplomacy-gave-lecture-freedom.html')]), ("What is Dick Cheney's view on Margaret Thatcher's advice to George H.W. Bush?", [('Dick Cheney on Monday, April 8th, 2013 in an interview on Fox News\n* * *\nThe Ruling: FALSE\nIt\'s one of Margaret Thatcher\'s most memorable quotes, spoken to President George H.W.Says it\'s "an old wives\' story" that Margaret Thatcher told George H.W.Bush Presidential Library and Museum, declassified confidential memo of meeting with President Carlos Andres Perez of Venezuela, May 3, 1991\nMargaret Thatcher Foundation, "Remarks by President Bush (\'This will not stand, this aggression against Kuwait\')," Aug. 5, 1990\nMargaret Thatcher Foundation, "Gulf War: Bush-Thatcher phone conversation (no time to go wobbly) [memoirs extract]," 1993\nFrontline, "Oral history: Margaret Thatcher," accessed April 9, 2013\n"A World Transformed," by George H.W.', 'https://www.tampabay.com/archive/2013/04/10/dick-cheney-disputes-margaret-thatcher-s-famous-no-time-to-go-wobbly-quote/'), ('Thatcher:  "Margaret, what is your view?"Q:  George Bush, Dick Cheney were being told by  Colin Powell, to give sanctions a chance....\n\nThatcher:  Look, sanctions don\'t work.When I then went to Ambassador Cato\'s main house where President Bush had come,  George Bush just said to me, "now Margaret, what do you think?"', 'https://www.pbs.org/wgbh/pages/frontline/gulf/oral/thatcher/1.html'), ('I would not have wanted to take on Margaret Thatcher in the house of Parliament.We will talk with former vice president Dick Cheney.DICK CHENEY, FORMER VICE PRESIDENT OF THE UNITED STATES: Good to see you, Greta.', 'https://www.foxnews.com/transcript/cheney-remembers-former-british-prime-minister-margaret-thatcher-as-decisive-leader-elegant-true-ally-of-the-us'), ('Mr Cheney said "no final decision had been taken on how to respond" to a chemical weapons attack.Margaret Thatcher suggested threatening Iraq with chemical weapons after the 1990 invasion of Kuwait, declassified documents show.But President George HW Bush said such a move would "put the US in the wrong in world opinion".', 'https://www.bbc.com/news/uk-politics-40667031')])]</t>
+  </si>
+  <si>
+    <t>Perry pushed for a law that lets insurance companies raise homeowners’ rates without having to justify the increase.</t>
+  </si>
+  <si>
+    <t>Back to Basics</t>
+  </si>
+  <si>
+    <t>The claim that Perry pushed for a law allowing insurance companies to raise homeowners' rates without justification is false. The information provided indicates that Perry did push for a law related to insurance companies, but this law required companies to file their rates with the Texas Department of Insurance within 20 days of the governor’s signature. This law was aimed at stabilizing the home and auto insurance market, eliminating fraudulent practices, and ensuring Texans have access to fair rates offered in a competitive market. The law that allows insurance companies to raise rates without prior approval from the state insurance department is not specifically linked to Perry in the provided information. Therefore, the claim is not accurate.</t>
+  </si>
+  <si>
+    <t>[('Did Perry push for a law allowing insurance companies to raise rates?', [('I don\'t have to raise any money."The best positioning on the issue might belong to Democrat Kirk Watson, who decided early on to hammer Republican Greg Abbott for working for a law firm that represents insurance companies.', 'https://www.texastribune.org/2002/08/19/risks-hazards-and-insurance/'), ("FACT: As clearly seen in the text of the bill, the act specifically prohibits the denial of coverage based on pre-existing conditions and prevents insurance companies from rescinding coverage to these vulnerable citizens.Editor's note:The guest column Rep. Perry refers to here has been edited to remove inaccurate information.", 'https://www.ydr.com/story/opinion/columnists/2017/05/10/perry-myths-facts-gop-health-care-law-column/101518896/'), ('Under the new law, companies will be required to file their rates with the Texas Department of Insurance within 20 days of the governor’s signature.“This comprehensive reform measure will stabilize the home and auto insurance market, rid the insurance industry of fraudulent practices and ensure Texans have access to fair rates offered in a competitive market,” Perry stated at the signing ceremony for SB 14.', 'https://www.insurancejournal.com/magazines/mag-features/2003/06/23/30111.htm'), ('I would always suggest Sommerman, McCaffity, Quesada &amp; Geisler if you need an attorney that is not intimidated by multi-billion dollar insurance companies.This law is conceptually based on a so-called “model” law developed by the corporate-backed American Legislative Exchange Council in 1995.', 'https://www.textrial.com/ten-years-later-how-house-bill-4-has-harmed-texans/')]), ('What is the law that lets insurance companies raise homeowners’ rates without justification?', [('The law requires insurance\ncompanies to file their rates, and any rate\nincrease requests, with the MIA.Another factor that has caused an increase in homeowners insurance rates is home values.', 'https://insurance.maryland.gov/Consumer/Documents/publications/ConsumerAdvisory-HomeownersInsuranceRateIncreases.pdf'), ('Learn more: Affordable home insurance companies\nThere are many situations when property insurance companies can raise your rate after a claim.Some of the situations that prohibit insurance companies from raising premiums include:\nAs a homeowner, it is important to understand the consumer protection laws in your state.', 'https://www.bankrate.com/insurance/homeowners-insurance/does-homeowners-insurance-go-up-after-a-claim/'), ("One important thing to know about rising home insurance costs is that insurance companies are required by law to set rates that are actuarially sound, meaning rates can't be excessive or insufficient.**\nWhat does my homeowners insurance cover?", 'https://www.kin.com/blog/why-did-my-home-insurance-go-up/'), ('It allows insurance companies to increase rates without prior approval from the state insurance department.It allows insurance companies to increase rates without prior approval from the state insurance department.', 'https://lailluminator.com/2024/05/08/temple-insurance-3/')]), ("What is Back to Basics' claim about Perry and insurance rates?", [('Rick Perry for allowing home insurance rates to skyrocket.Rick Perry for allowing home insurance rates to skyrocket.', 'https://www.texastribune.org/2010/09/08/new-back-to-basics-ad-perry-on-insurance-rates/'), ('At Perry Insurance Group, we understand your concerns, and we are here to help.Contact us today to learn more and discover how we can help safeguard what matters most to you.', 'https://www.perryinsurancegroup.com/workers-compensation-insurance'), ('Know the basics.February is American Heart Month, which means it’s time to pause thinking about Valentine’s Day and, instead, think about your old ticker.', 'https://www.perrycarroll.com/category/archives/')])]</t>
   </si>
 </sst>
 </file>
@@ -1541,7 +1553,7 @@
     <col min="6" max="6" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3542,12 +3554,24 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
+      <c r="A101" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>384</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
